--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/70/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/70/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.41465</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3414.65</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.123997</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.99473</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>3994.73</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155027</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.628270000000001</v>
+        <v>5.517720000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>4628.27</v>
+        <v>5517.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186003</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.135479999999999</v>
+        <v>6.09521</v>
       </c>
       <c r="C8" t="n">
-        <v>5135.48</v>
+        <v>6095.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216979</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.55401</v>
+        <v>6.616840000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>5554.01</v>
+        <v>6616.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247904</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>5.942010000000001</v>
+        <v>6.89396</v>
       </c>
       <c r="C10" t="n">
-        <v>5942.01</v>
+        <v>6893.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278824</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>6.26533</v>
+        <v>7.095890000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>6265.33</v>
+        <v>7095.89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309749</v>
+        <v>0.309817</v>
       </c>
       <c r="B12" t="n">
-        <v>6.57191</v>
+        <v>7.17421</v>
       </c>
       <c r="C12" t="n">
-        <v>6571.91</v>
+        <v>7174.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340674</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>6.840350000000001</v>
+        <v>7.19854</v>
       </c>
       <c r="C13" t="n">
-        <v>6840.35</v>
+        <v>7198.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371599</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>7.08353</v>
+        <v>7.19195</v>
       </c>
       <c r="C14" t="n">
-        <v>7083.53</v>
+        <v>7191.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402524</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>7.26844</v>
+        <v>7.17682</v>
       </c>
       <c r="C15" t="n">
-        <v>7268.44</v>
+        <v>7176.82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433449</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>7.40892</v>
+        <v>7.15933</v>
       </c>
       <c r="C16" t="n">
-        <v>7408.92</v>
+        <v>7159.33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464374</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>7.53401</v>
+        <v>7.13983</v>
       </c>
       <c r="C17" t="n">
-        <v>7534.01</v>
+        <v>7139.83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495299</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>7.60194</v>
+        <v>7.11957</v>
       </c>
       <c r="C18" t="n">
-        <v>7601.94</v>
+        <v>7119.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526224</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>7.64202</v>
+        <v>7.09746</v>
       </c>
       <c r="C19" t="n">
-        <v>7642.02</v>
+        <v>7097.46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.55715</v>
+        <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>7.656569999999999</v>
+        <v>7.07455</v>
       </c>
       <c r="C20" t="n">
-        <v>7656.57</v>
+        <v>7074.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588075</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>7.66378</v>
+        <v>7.05021</v>
       </c>
       <c r="C21" t="n">
-        <v>7663.78</v>
+        <v>7050.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619117</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>7.66528</v>
+        <v>7.024520000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>7665.28</v>
+        <v>7024.52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650289</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>7.66391</v>
+        <v>6.997350000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>7663.91</v>
+        <v>6997.35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681466</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>7.66082</v>
+        <v>6.96871</v>
       </c>
       <c r="C24" t="n">
-        <v>7660.82</v>
+        <v>6968.71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712639</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>7.65623</v>
+        <v>6.93891</v>
       </c>
       <c r="C25" t="n">
-        <v>7656.23</v>
+        <v>6938.91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743811</v>
+        <v>0.743879</v>
       </c>
       <c r="B26" t="n">
-        <v>7.65044</v>
+        <v>6.9081</v>
       </c>
       <c r="C26" t="n">
-        <v>7650.44</v>
+        <v>6908.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774988</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>7.6436</v>
+        <v>6.87581</v>
       </c>
       <c r="C27" t="n">
-        <v>7643.6</v>
+        <v>6875.81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806161</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>7.63575</v>
+        <v>6.84205</v>
       </c>
       <c r="C28" t="n">
-        <v>7635.75</v>
+        <v>6842.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837333</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>7.62695</v>
+        <v>6.806319999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>7626.95</v>
+        <v>6806.32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.86851</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>7.617220000000001</v>
+        <v>6.76938</v>
       </c>
       <c r="C30" t="n">
-        <v>7617.22</v>
+        <v>6769.38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899683</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>7.60654</v>
+        <v>6.73022</v>
       </c>
       <c r="C31" t="n">
-        <v>7606.54</v>
+        <v>6730.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93086</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>7.59496</v>
+        <v>6.68839</v>
       </c>
       <c r="C32" t="n">
-        <v>7594.96</v>
+        <v>6688.39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962033</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>7.58253</v>
+        <v>6.64355</v>
       </c>
       <c r="C33" t="n">
-        <v>7582.53</v>
+        <v>6643.55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993205</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>7.56911</v>
+        <v>6.59604</v>
       </c>
       <c r="C34" t="n">
-        <v>7569.11</v>
+        <v>6596.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02423</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>7.554850000000001</v>
+        <v>6.54536</v>
       </c>
       <c r="C35" t="n">
-        <v>7554.85</v>
+        <v>6545.36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05519</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>7.539680000000001</v>
+        <v>6.49209</v>
       </c>
       <c r="C36" t="n">
-        <v>7539.68</v>
+        <v>6492.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08616</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>7.523510000000001</v>
+        <v>6.4349</v>
       </c>
       <c r="C37" t="n">
-        <v>7523.51</v>
+        <v>6434.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11713</v>
+        <v>1.11847</v>
       </c>
       <c r="B38" t="n">
-        <v>7.50611</v>
+        <v>6.37514</v>
       </c>
       <c r="C38" t="n">
-        <v>7506.11</v>
+        <v>6375.14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1481</v>
+        <v>1.14945</v>
       </c>
       <c r="B39" t="n">
-        <v>7.4875</v>
+        <v>6.311859999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>7487.5</v>
+        <v>6311.86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17906</v>
+        <v>1.18046</v>
       </c>
       <c r="B40" t="n">
-        <v>7.46771</v>
+        <v>6.24517</v>
       </c>
       <c r="C40" t="n">
-        <v>7467.71</v>
+        <v>6245.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21003</v>
+        <v>1.21149</v>
       </c>
       <c r="B41" t="n">
-        <v>7.44671</v>
+        <v>6.17507</v>
       </c>
       <c r="C41" t="n">
-        <v>7446.71</v>
+        <v>6175.07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.241</v>
+        <v>1.24236</v>
       </c>
       <c r="B42" t="n">
-        <v>7.42468</v>
+        <v>6.102300000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>7424.68</v>
+        <v>6102.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27197</v>
+        <v>1.27348</v>
       </c>
       <c r="B43" t="n">
-        <v>7.401590000000001</v>
+        <v>6.02555</v>
       </c>
       <c r="C43" t="n">
-        <v>7401.59</v>
+        <v>6025.55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30294</v>
+        <v>1.3043</v>
       </c>
       <c r="B44" t="n">
-        <v>7.37741</v>
+        <v>5.9472</v>
       </c>
       <c r="C44" t="n">
-        <v>7377.41</v>
+        <v>5947.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3339</v>
+        <v>1.33553</v>
       </c>
       <c r="B45" t="n">
-        <v>7.35194</v>
+        <v>5.86475</v>
       </c>
       <c r="C45" t="n">
-        <v>7351.94</v>
+        <v>5864.75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36487</v>
+        <v>1.36625</v>
       </c>
       <c r="B46" t="n">
-        <v>7.32499</v>
+        <v>5.78086</v>
       </c>
       <c r="C46" t="n">
-        <v>7324.99</v>
+        <v>5780.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39584</v>
+        <v>1.39749</v>
       </c>
       <c r="B47" t="n">
-        <v>7.29656</v>
+        <v>5.6934</v>
       </c>
       <c r="C47" t="n">
-        <v>7296.56</v>
+        <v>5693.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42681</v>
+        <v>1.42822</v>
       </c>
       <c r="B48" t="n">
-        <v>7.26671</v>
+        <v>5.60532</v>
       </c>
       <c r="C48" t="n">
-        <v>7266.71</v>
+        <v>5605.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45778</v>
+        <v>1.45954</v>
       </c>
       <c r="B49" t="n">
-        <v>7.23537</v>
+        <v>5.51374</v>
       </c>
       <c r="C49" t="n">
-        <v>7235.37</v>
+        <v>5513.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48874</v>
+        <v>1.49023</v>
       </c>
       <c r="B50" t="n">
-        <v>7.20249</v>
+        <v>5.42206</v>
       </c>
       <c r="C50" t="n">
-        <v>7202.49</v>
+        <v>5422.06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51971</v>
+        <v>1.5215</v>
       </c>
       <c r="B51" t="n">
-        <v>7.168010000000001</v>
+        <v>5.32811</v>
       </c>
       <c r="C51" t="n">
-        <v>7168.01</v>
+        <v>5328.11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55068</v>
+        <v>1.55218</v>
       </c>
       <c r="B52" t="n">
-        <v>7.13205</v>
+        <v>5.23508</v>
       </c>
       <c r="C52" t="n">
-        <v>7132.05</v>
+        <v>5235.08</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58164</v>
+        <v>1.58354</v>
       </c>
       <c r="B53" t="n">
-        <v>7.09453</v>
+        <v>5.13979</v>
       </c>
       <c r="C53" t="n">
-        <v>7094.53</v>
+        <v>5139.79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61264</v>
+        <v>1.61429</v>
       </c>
       <c r="B54" t="n">
-        <v>7.05521</v>
+        <v>5.04583</v>
       </c>
       <c r="C54" t="n">
-        <v>7055.21</v>
+        <v>5045.83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64365</v>
+        <v>1.64556</v>
       </c>
       <c r="B55" t="n">
-        <v>7.01411</v>
+        <v>4.95152</v>
       </c>
       <c r="C55" t="n">
-        <v>7014.11</v>
+        <v>4951.52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67461</v>
+        <v>1.67644</v>
       </c>
       <c r="B56" t="n">
-        <v>6.97115</v>
+        <v>4.859</v>
       </c>
       <c r="C56" t="n">
-        <v>6971.15</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70567</v>
+        <v>1.70748</v>
       </c>
       <c r="B57" t="n">
-        <v>6.92599</v>
+        <v>4.76764</v>
       </c>
       <c r="C57" t="n">
-        <v>6925.99</v>
+        <v>4767.64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73649</v>
+        <v>1.73858</v>
       </c>
       <c r="B58" t="n">
-        <v>6.879270000000001</v>
+        <v>4.67755</v>
       </c>
       <c r="C58" t="n">
-        <v>6879.27</v>
+        <v>4677.55</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.7677</v>
+        <v>1.76919</v>
       </c>
       <c r="B59" t="n">
-        <v>6.82986</v>
+        <v>4.59055</v>
       </c>
       <c r="C59" t="n">
-        <v>6829.86</v>
+        <v>4590.55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79858</v>
+        <v>1.8006</v>
       </c>
       <c r="B60" t="n">
-        <v>6.77879</v>
+        <v>4.50329</v>
       </c>
       <c r="C60" t="n">
-        <v>6778.79</v>
+        <v>4503.29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82964</v>
+        <v>1.8314</v>
       </c>
       <c r="B61" t="n">
-        <v>6.72516</v>
+        <v>4.41985</v>
       </c>
       <c r="C61" t="n">
-        <v>6725.16</v>
+        <v>4419.85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86068</v>
+        <v>1.86235</v>
       </c>
       <c r="B62" t="n">
-        <v>6.66923</v>
+        <v>4.338229999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>6669.23</v>
+        <v>4338.23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89148</v>
+        <v>1.89358</v>
       </c>
       <c r="B63" t="n">
-        <v>6.61149</v>
+        <v>4.258220000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>6611.49</v>
+        <v>4258.22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92269</v>
+        <v>1.92424</v>
       </c>
       <c r="B64" t="n">
-        <v>6.550560000000001</v>
+        <v>4.182300000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>6550.56</v>
+        <v>4182.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95353</v>
+        <v>1.95544</v>
       </c>
       <c r="B65" t="n">
-        <v>6.48828</v>
+        <v>4.10787</v>
       </c>
       <c r="C65" t="n">
-        <v>6488.28</v>
+        <v>4107.87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98468</v>
+        <v>1.98668</v>
       </c>
       <c r="B66" t="n">
-        <v>6.42312</v>
+        <v>4.03616</v>
       </c>
       <c r="C66" t="n">
-        <v>6423.12</v>
+        <v>4036.16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0156</v>
+        <v>2.01714</v>
       </c>
       <c r="B67" t="n">
-        <v>6.356310000000001</v>
+        <v>3.96823</v>
       </c>
       <c r="C67" t="n">
-        <v>6356.31</v>
+        <v>3968.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04671</v>
+        <v>2.04806</v>
       </c>
       <c r="B68" t="n">
-        <v>6.28727</v>
+        <v>3.90249</v>
       </c>
       <c r="C68" t="n">
-        <v>6287.27</v>
+        <v>3902.49</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07773</v>
+        <v>2.07969</v>
       </c>
       <c r="B69" t="n">
-        <v>6.216229999999999</v>
+        <v>3.83929</v>
       </c>
       <c r="C69" t="n">
-        <v>6216.23</v>
+        <v>3839.29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10856</v>
+        <v>2.11015</v>
       </c>
       <c r="B70" t="n">
-        <v>6.14354</v>
+        <v>3.77983</v>
       </c>
       <c r="C70" t="n">
-        <v>6143.54</v>
+        <v>3779.83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13984</v>
+        <v>2.14078</v>
       </c>
       <c r="B71" t="n">
-        <v>6.068680000000001</v>
+        <v>3.72217</v>
       </c>
       <c r="C71" t="n">
-        <v>6068.68</v>
+        <v>3722.17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17056</v>
+        <v>2.17278</v>
       </c>
       <c r="B72" t="n">
-        <v>5.99273</v>
+        <v>3.66579</v>
       </c>
       <c r="C72" t="n">
-        <v>5992.73</v>
+        <v>3665.79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20174</v>
+        <v>2.20337</v>
       </c>
       <c r="B73" t="n">
-        <v>5.9145</v>
+        <v>3.6128</v>
       </c>
       <c r="C73" t="n">
-        <v>5914.5</v>
+        <v>3612.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23273</v>
+        <v>2.23378</v>
       </c>
       <c r="B74" t="n">
-        <v>5.83559</v>
+        <v>3.56286</v>
       </c>
       <c r="C74" t="n">
-        <v>5835.59</v>
+        <v>3562.86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26365</v>
+        <v>2.26477</v>
       </c>
       <c r="B75" t="n">
-        <v>5.75498</v>
+        <v>3.51622</v>
       </c>
       <c r="C75" t="n">
-        <v>5754.98</v>
+        <v>3516.22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29489</v>
+        <v>2.29628</v>
       </c>
       <c r="B76" t="n">
-        <v>5.67381</v>
+        <v>3.47628</v>
       </c>
       <c r="C76" t="n">
-        <v>5673.81</v>
+        <v>3476.28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32555</v>
+        <v>2.32779</v>
       </c>
       <c r="B77" t="n">
-        <v>5.59165</v>
+        <v>3.4359</v>
       </c>
       <c r="C77" t="n">
-        <v>5591.65</v>
+        <v>3435.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35697</v>
+        <v>2.35926</v>
       </c>
       <c r="B78" t="n">
-        <v>5.50848</v>
+        <v>3.39927</v>
       </c>
       <c r="C78" t="n">
-        <v>5508.48</v>
+        <v>3399.27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38711</v>
+        <v>2.39078</v>
       </c>
       <c r="B79" t="n">
-        <v>5.42665</v>
+        <v>3.37935</v>
       </c>
       <c r="C79" t="n">
-        <v>5426.65</v>
+        <v>3379.35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41911</v>
+        <v>2.42065</v>
       </c>
       <c r="B80" t="n">
-        <v>5.34162</v>
+        <v>3.3732</v>
       </c>
       <c r="C80" t="n">
-        <v>5341.62</v>
+        <v>3373.2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44951</v>
+        <v>2.45051</v>
       </c>
       <c r="B81" t="n">
-        <v>5.25841</v>
+        <v>3.36305</v>
       </c>
       <c r="C81" t="n">
-        <v>5258.41</v>
+        <v>3363.05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47991</v>
+        <v>2.48038</v>
       </c>
       <c r="B82" t="n">
-        <v>5.176970000000001</v>
+        <v>3.35351</v>
       </c>
       <c r="C82" t="n">
-        <v>5176.97</v>
+        <v>3353.51</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.5093</v>
+        <v>2.51025</v>
       </c>
       <c r="B83" t="n">
-        <v>5.09703</v>
+        <v>3.34171</v>
       </c>
       <c r="C83" t="n">
-        <v>5097.03</v>
+        <v>3341.71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54114</v>
+        <v>2.5385</v>
       </c>
       <c r="B84" t="n">
-        <v>5.01062</v>
+        <v>3.33058</v>
       </c>
       <c r="C84" t="n">
-        <v>5010.62</v>
+        <v>3330.58</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57391</v>
+        <v>2.56983</v>
       </c>
       <c r="B85" t="n">
-        <v>4.92372</v>
+        <v>3.31825</v>
       </c>
       <c r="C85" t="n">
-        <v>4923.72</v>
+        <v>3318.25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60499</v>
+        <v>2.60311</v>
       </c>
       <c r="B86" t="n">
-        <v>4.83871</v>
+        <v>3.29957</v>
       </c>
       <c r="C86" t="n">
-        <v>4838.71</v>
+        <v>3299.57</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63608</v>
+        <v>2.63639</v>
       </c>
       <c r="B87" t="n">
-        <v>4.75524</v>
+        <v>3.28369</v>
       </c>
       <c r="C87" t="n">
-        <v>4755.24</v>
+        <v>3283.69</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66669</v>
+        <v>2.66967</v>
       </c>
       <c r="B88" t="n">
-        <v>4.67361</v>
+        <v>3.26739</v>
       </c>
       <c r="C88" t="n">
-        <v>4673.61</v>
+        <v>3267.39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69595</v>
+        <v>2.70295</v>
       </c>
       <c r="B89" t="n">
-        <v>4.59403</v>
+        <v>3.24554</v>
       </c>
       <c r="C89" t="n">
-        <v>4594.03</v>
+        <v>3245.54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72521</v>
+        <v>2.73448</v>
       </c>
       <c r="B90" t="n">
-        <v>4.51645</v>
+        <v>3.22997</v>
       </c>
       <c r="C90" t="n">
-        <v>4516.45</v>
+        <v>3229.97</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7583</v>
+        <v>2.7652</v>
       </c>
       <c r="B91" t="n">
-        <v>4.43151</v>
+        <v>3.21508</v>
       </c>
       <c r="C91" t="n">
-        <v>4431.51</v>
+        <v>3215.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.7903</v>
+        <v>2.79592</v>
       </c>
       <c r="B92" t="n">
-        <v>4.347510000000001</v>
+        <v>3.19565</v>
       </c>
       <c r="C92" t="n">
-        <v>4347.51</v>
+        <v>3195.65</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8223</v>
+        <v>2.82664</v>
       </c>
       <c r="B93" t="n">
-        <v>4.26637</v>
+        <v>3.17736</v>
       </c>
       <c r="C93" t="n">
-        <v>4266.37</v>
+        <v>3177.36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8543</v>
+        <v>2.85736</v>
       </c>
       <c r="B94" t="n">
-        <v>4.18799</v>
+        <v>3.16001</v>
       </c>
       <c r="C94" t="n">
-        <v>4187.99</v>
+        <v>3160.01</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88479</v>
+        <v>2.88808</v>
       </c>
       <c r="B95" t="n">
-        <v>4.11232</v>
+        <v>3.14292</v>
       </c>
       <c r="C95" t="n">
-        <v>4112.32</v>
+        <v>3142.92</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91466</v>
+        <v>2.9188</v>
       </c>
       <c r="B96" t="n">
-        <v>4.03923</v>
+        <v>3.12937</v>
       </c>
       <c r="C96" t="n">
-        <v>4039.23</v>
+        <v>3129.37</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94453</v>
+        <v>2.94932</v>
       </c>
       <c r="B97" t="n">
-        <v>3.96896</v>
+        <v>3.10907</v>
       </c>
       <c r="C97" t="n">
-        <v>3968.96</v>
+        <v>3109.07</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97439</v>
+        <v>2.97748</v>
       </c>
       <c r="B98" t="n">
-        <v>3.90137</v>
+        <v>3.08908</v>
       </c>
       <c r="C98" t="n">
-        <v>3901.37</v>
+        <v>3089.08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00288</v>
+        <v>3.00564</v>
       </c>
       <c r="B99" t="n">
-        <v>3.83685</v>
+        <v>3.07611</v>
       </c>
       <c r="C99" t="n">
-        <v>3836.85</v>
+        <v>3076.11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03521</v>
+        <v>3.0338</v>
       </c>
       <c r="B100" t="n">
-        <v>3.76453</v>
+        <v>3.05868</v>
       </c>
       <c r="C100" t="n">
-        <v>3764.53</v>
+        <v>3058.68</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0685</v>
+        <v>3.06196</v>
       </c>
       <c r="B101" t="n">
-        <v>3.69423</v>
+        <v>3.04592</v>
       </c>
       <c r="C101" t="n">
-        <v>3694.23</v>
+        <v>3045.92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10156</v>
+        <v>3.09012</v>
       </c>
       <c r="B102" t="n">
-        <v>3.62784</v>
+        <v>3.0294</v>
       </c>
       <c r="C102" t="n">
-        <v>3627.84</v>
+        <v>3029.4</v>
       </c>
     </row>
   </sheetData>
